--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3173,6 +3173,265 @@
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111958182</v>
+      </c>
+      <c r="B24" t="n">
+        <v>55611</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>102612</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Österåsen, Österås, Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>609746.731343443</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7011953.229753771</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Lennart Vessberg</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Lennart Vessberg</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111958205</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Österåsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>609802.6803741428</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7011969.124995505</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>½ m2</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Lennart Vessberg</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Lennart Vessberg</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111958182</v>
+        <v>111958205</v>
       </c>
       <c r="B24" t="n">
-        <v>55611</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3187,50 +3187,50 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>102612</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Österåsen, Österås, Ång</t>
+          <t>Österåsen, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>609746.731343443</v>
+        <v>609802.6803741428</v>
       </c>
       <c r="R24" t="n">
-        <v>7011953.229753771</v>
+        <v>7011969.124995505</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>½ m2</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3286,6 +3286,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3304,10 +3305,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111958205</v>
+        <v>111958182</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>55611</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3316,50 +3317,50 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>102612</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Österåsen, Ång</t>
+          <t>Österåsen, Österås, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>609802.6803741428</v>
+        <v>609746.731343443</v>
       </c>
       <c r="R25" t="n">
-        <v>7011969.124995505</v>
+        <v>7011953.229753771</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3406,7 +3407,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>½ m2</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3415,7 +3416,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3431,6 +3431,254 @@
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111957798</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>658</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Österåsen, Österås, Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>609746.731343443</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7011953.229753771</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Lennart Vessberg</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Lennart Vessberg</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111957843</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>658</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Österås, Österås, Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>609773.4136058968</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7011992.49874373</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ed</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Lennart Vessberg</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Lennart Vessberg</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -3175,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111958205</v>
+        <v>111958182</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>55611</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3187,50 +3187,50 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>102612</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Österåsen, Ång</t>
+          <t>Österåsen, Österås, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>609802.6803741428</v>
+        <v>609746.731343443</v>
       </c>
       <c r="R24" t="n">
-        <v>7011969.124995505</v>
+        <v>7011953.229753771</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>½ m2</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3286,7 +3286,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3305,10 +3304,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111958182</v>
+        <v>111957798</v>
       </c>
       <c r="B25" t="n">
-        <v>55611</v>
+        <v>89686</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3321,35 +3320,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>102612</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3405,17 +3403,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3434,10 +3428,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111957798</v>
+        <v>111958205</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3446,49 +3440,50 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Österåsen, Österås, Ång</t>
+          <t>Österåsen, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>609746.731343443</v>
+        <v>609802.6803741428</v>
       </c>
       <c r="R26" t="n">
-        <v>7011953.229753771</v>
+        <v>7011969.124995505</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3531,6 +3526,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>½ m2</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -3175,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111958182</v>
+        <v>111957843</v>
       </c>
       <c r="B24" t="n">
-        <v>55611</v>
+        <v>89686</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3191,46 +3191,45 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>102612</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Österåsen, Österås, Ång</t>
+          <t>Österås, Österås, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>609746.731343443</v>
+        <v>609773.4136058968</v>
       </c>
       <c r="R24" t="n">
-        <v>7011953.229753771</v>
+        <v>7011992.49874373</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3275,17 +3274,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3304,10 +3299,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111957798</v>
+        <v>111958182</v>
       </c>
       <c r="B25" t="n">
-        <v>89686</v>
+        <v>55611</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3320,34 +3315,35 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>102612</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3403,13 +3399,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111957843</v>
+        <v>111957798</v>
       </c>
       <c r="B27" t="n">
         <v>89686</v>
@@ -3605,14 +3605,14 @@
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Österås, Österås, Ång</t>
+          <t>Österåsen, Österås, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>609773.4136058968</v>
+        <v>609746.731343443</v>
       </c>
       <c r="R27" t="n">
-        <v>7011992.49874373</v>
+        <v>7011953.229753771</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -3175,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111957843</v>
+        <v>111958205</v>
       </c>
       <c r="B24" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3187,49 +3187,50 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Österås, Österås, Ång</t>
+          <t>Österåsen, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>609773.4136058968</v>
+        <v>609802.6803741428</v>
       </c>
       <c r="R24" t="n">
-        <v>7011992.49874373</v>
+        <v>7011969.124995505</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3272,6 +3273,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>½ m2</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3428,10 +3434,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111958205</v>
+        <v>111957843</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3440,50 +3446,49 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Österåsen, Ång</t>
+          <t>Österås, Österås, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>609802.6803741428</v>
+        <v>609773.4136058968</v>
       </c>
       <c r="R26" t="n">
-        <v>7011969.124995505</v>
+        <v>7011992.49874373</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3526,11 +3531,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>½ m2</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -3175,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111958205</v>
+        <v>111957843</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3187,50 +3187,49 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Österåsen, Ång</t>
+          <t>Österås, Österås, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>609802.6803741428</v>
+        <v>609773.4136058968</v>
       </c>
       <c r="R24" t="n">
-        <v>7011969.124995505</v>
+        <v>7011992.49874373</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3273,11 +3272,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>½ m2</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3305,10 +3299,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111958182</v>
+        <v>111957798</v>
       </c>
       <c r="B25" t="n">
-        <v>55611</v>
+        <v>89686</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3321,35 +3315,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>102612</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3405,17 +3398,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3434,10 +3423,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111957843</v>
+        <v>111958182</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>55611</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3450,45 +3439,46 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>102612</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Österås, Österås, Ång</t>
+          <t>Österåsen, Österås, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>609773.4136058968</v>
+        <v>609746.731343443</v>
       </c>
       <c r="R26" t="n">
-        <v>7011992.49874373</v>
+        <v>7011953.229753771</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3533,13 +3523,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3558,10 +3552,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111957798</v>
+        <v>111958205</v>
       </c>
       <c r="B27" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3570,49 +3564,50 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Österåsen, Österås, Ång</t>
+          <t>Österåsen, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>609746.731343443</v>
+        <v>609802.6803741428</v>
       </c>
       <c r="R27" t="n">
-        <v>7011953.229753771</v>
+        <v>7011969.124995505</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3655,6 +3650,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>½ m2</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -3175,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111957843</v>
+        <v>111958205</v>
       </c>
       <c r="B24" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3187,49 +3187,50 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Österås, Österås, Ång</t>
+          <t>Österåsen, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>609773.4136058968</v>
+        <v>609803</v>
       </c>
       <c r="R24" t="n">
-        <v>7011992.49874373</v>
+        <v>7011969</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3259,19 +3260,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>½ m2</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3350,10 +3346,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>609746.731343443</v>
+        <v>609747</v>
       </c>
       <c r="R25" t="n">
-        <v>7011953.229753771</v>
+        <v>7011953</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3383,19 +3379,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3423,10 +3409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111958182</v>
+        <v>111957843</v>
       </c>
       <c r="B26" t="n">
-        <v>55611</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3439,46 +3425,45 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>102612</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Österåsen, Österås, Ång</t>
+          <t>Österås, Österås, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>609746.731343443</v>
+        <v>609773</v>
       </c>
       <c r="R26" t="n">
-        <v>7011953.229753771</v>
+        <v>7011992</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3508,32 +3493,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3552,10 +3523,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111958205</v>
+        <v>111958182</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>55611</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3564,50 +3535,50 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>102612</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Österåsen, Ång</t>
+          <t>Österåsen, Österås, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>609802.6803741428</v>
+        <v>609747</v>
       </c>
       <c r="R27" t="n">
-        <v>7011969.124995505</v>
+        <v>7011953</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3637,24 +3608,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>½ m2</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3663,7 +3624,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -3175,10 +3175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111958205</v>
+        <v>111957798</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89820</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3187,50 +3187,49 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Österåsen, Ång</t>
+          <t>Österåsen, Österås, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>609803</v>
+        <v>609747</v>
       </c>
       <c r="R24" t="n">
-        <v>7011969</v>
+        <v>7011953</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3263,11 +3262,6 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>½ m2</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3295,10 +3289,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111957798</v>
+        <v>111957843</v>
       </c>
       <c r="B25" t="n">
-        <v>89686</v>
+        <v>89820</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3342,14 +3336,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Österåsen, Österås, Ång</t>
+          <t>Österås, Österås, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>609747</v>
+        <v>609773</v>
       </c>
       <c r="R25" t="n">
-        <v>7011953</v>
+        <v>7011992</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3409,10 +3403,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111957843</v>
+        <v>111958205</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>96720</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3421,49 +3415,50 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Österås, Österås, Ång</t>
+          <t>Österåsen, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>609773</v>
+        <v>609803</v>
       </c>
       <c r="R26" t="n">
-        <v>7011992</v>
+        <v>7011969</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3496,6 +3491,11 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>½ m2</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3526,7 +3526,7 @@
         <v>111958182</v>
       </c>
       <c r="B27" t="n">
-        <v>55611</v>
+        <v>55643</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>

--- a/artfynd/A 24887-2022.xlsx
+++ b/artfynd/A 24887-2022.xlsx
@@ -3178,7 +3178,7 @@
         <v>111957798</v>
       </c>
       <c r="B24" t="n">
-        <v>89820</v>
+        <v>89834</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>111957843</v>
       </c>
       <c r="B25" t="n">
-        <v>89820</v>
+        <v>89834</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>111958205</v>
       </c>
       <c r="B26" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
